--- a/ol-handback/OpenLocalizationTest/oltest/separatehandoff/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/separatehandoff/localization-status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>File Name</t>
   </si>
@@ -41,6 +41,9 @@
     <t>osmond-test-1.md</t>
   </si>
   <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>Ping.md</t>
   </si>
   <si>
@@ -191,13 +194,16 @@
     <t>Ignored</t>
   </si>
   <si>
+    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-01 08:11:12</t>
+  </si>
+  <si>
+    <t>2016-03-01 08:28:56</t>
+  </si>
+  <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-01 08:11:12</t>
-  </si>
-  <si>
-    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf</t>
   </si>
   <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
@@ -452,7 +458,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>5</v>
@@ -460,7 +466,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
@@ -474,7 +480,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
@@ -488,7 +494,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
@@ -502,7 +508,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
@@ -516,7 +522,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
@@ -530,7 +536,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
@@ -544,7 +550,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>5</v>
@@ -558,7 +564,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
@@ -572,7 +578,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>5</v>
@@ -586,7 +592,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>5</v>
@@ -600,7 +606,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>5</v>
@@ -614,7 +620,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>5</v>
@@ -628,58 +634,58 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -732,31 +738,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -767,16 +773,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -787,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -810,324 +816,324 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1195,440 +1201,448 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="github.png" r:id="rId4"/>
-    <hyperlink ref="C3" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId5"/>
-    <hyperlink ref="A4" display="osmond-test-1.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="Ping.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="test-scenario-1.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="test1.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId16"/>
-    <hyperlink ref="C9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="keep-the-ui-thread-responsive.md" r:id="rId18"/>
-    <hyperlink ref="C10" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="test2.md" r:id="rId20"/>
-    <hyperlink ref="C11" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="testimage.md" r:id="rId22"/>
-    <hyperlink ref="C12" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="testworkerrole.md" r:id="rId24"/>
-    <hyperlink ref="C13" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="TOC.yml" r:id="rId26"/>
-    <hyperlink ref="C14" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId27"/>
-    <hyperlink ref="A15" display="workerroletest.md" r:id="rId28"/>
-    <hyperlink ref="C15" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="TOC1.yml" r:id="rId30"/>
-    <hyperlink ref="C16" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId31"/>
-    <hyperlink ref="A17" display=".localization-config" r:id="rId32"/>
-    <hyperlink ref="A18" display="README.md" r:id="rId33"/>
-    <hyperlink ref="A19" display="testfirstlevel.md" r:id="rId34"/>
-    <hyperlink ref="A20" display="testfirstlevel2.md" r:id="rId35"/>
+    <hyperlink ref="A2" display="osmond-test-1.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="osmond-test-1.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="generate-warning&amp;error.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="github.png" r:id="rId8"/>
+    <hyperlink ref="C4" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId9"/>
+    <hyperlink ref="A5" display="Ping.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="test-scenario-1.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display="test1.md" r:id="rId14"/>
+    <hyperlink ref="C7" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId16"/>
+    <hyperlink ref="C8" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId18"/>
+    <hyperlink ref="C9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A10" display="keep-the-ui-thread-responsive.md" r:id="rId20"/>
+    <hyperlink ref="C10" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A11" display="test2.md" r:id="rId22"/>
+    <hyperlink ref="C11" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A12" display="testimage.md" r:id="rId24"/>
+    <hyperlink ref="C12" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A13" display="testworkerrole.md" r:id="rId26"/>
+    <hyperlink ref="C13" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A14" display="TOC.yml" r:id="rId28"/>
+    <hyperlink ref="C14" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId29"/>
+    <hyperlink ref="A15" display="workerroletest.md" r:id="rId30"/>
+    <hyperlink ref="C15" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A16" display="TOC1.yml" r:id="rId32"/>
+    <hyperlink ref="C16" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId33"/>
+    <hyperlink ref="A17" display=".localization-config" r:id="rId34"/>
+    <hyperlink ref="A18" display="README.md" r:id="rId35"/>
+    <hyperlink ref="A19" display="testfirstlevel.md" r:id="rId36"/>
+    <hyperlink ref="A20" display="testfirstlevel2.md" r:id="rId37"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1658,31 +1672,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -1693,16 +1707,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -1713,19 +1727,19 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -1736,324 +1750,324 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
